--- a/markdown_generator/pub_talks_inputs.xlsx
+++ b/markdown_generator/pub_talks_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="publications.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:xju:Documents:Programs:PersonalSite:xju2.github.io:markdown_generator:publications.tsv">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:xju:Documents:Programs:PersonalSite:xju2.github.io:markdown_generator:publications.tsv">
       <textFields count="7">
         <textField type="text"/>
         <textField/>
@@ -42,7 +42,7 @@
     </textPr>
   </connection>
   <connection id="2" name="talks.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:xju:Documents:Programs:PersonalSite:xju2.github.io:markdown_generator:talks.tsv">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:xju:Documents:Programs:PersonalSite:xju2.github.io:markdown_generator:talks.tsv">
       <textFields count="8">
         <textField type="text"/>
         <textField/>
@@ -235,9 +235,6 @@
     <t>Combined search for the Standard Model Higgs boson using up to 4.9 fb$^{-1}$ of pp collision data at $\\sqrt{s}$ = 7 TeV with the ATLAS detector at the LHC</t>
   </si>
   <si>
-    <t>Measurement of the Higgs boson mass from the $H \\to \\gamma\\gamma$ and $H \\to  ZZ^{*}  4\\ell$ channels with the ATLAS detector using 25 fb$^{-1}$ of pp collision data</t>
-  </si>
-  <si>
     <t>Measurements of the Higgs boson production and decay rates and couplings using pp collision data at $\\sqrt{s}$ = 7 and 8 TeV in the ATLAS experiment</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Search for new phenomena in high-mass diphoton final states using 37 fb$^{-1}$ of proton-proton collisions at $\\sqrt{s}$ = 13 TeV with the ATLAS detector</t>
   </si>
   <si>
-    <t>Search for heavy ZZ resonances in the $\\ell\\ell\\ell\\ell$ and $\\ell\ell\\nu\\nu$ final state using proton-proton collisions at $\\sqrt{s}$ = 13 TeV with the ATLAS detector</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -506,6 +500,12 @@
   </si>
   <si>
     <t>2017-08-03</t>
+  </si>
+  <si>
+    <t>Search for heavy ZZ resonances in the $\\ell\\ell\\ell\\ell$ and $\\ell\\ell\\nu\\nu$ final state using proton-proton collisions at $\\sqrt{s}$ = 13 TeV with the ATLAS detector</t>
+  </si>
+  <si>
+    <t>Measurement of the Higgs boson mass from the $H \\to \\gamma\\gamma$ and $H \\to  ZZ^{*} \\to 4\\ell$ channels with the ATLAS detector using 25 fb$^{-1}$ of pp collision data</t>
   </si>
 </sst>
 </file>
@@ -518,6 +518,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1068,7 +1069,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1108,7 +1109,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1148,7 +1149,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1168,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1185,7 +1186,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1212,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1231,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1240,342 +1241,342 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>82</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>115</v>
-      </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
         <v>119</v>
       </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>120</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
         <v>123</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
         <v>124</v>
       </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>125</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H13" t="s">
         <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>135</v>
-      </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/pub_talks_inputs.xlsx
+++ b/markdown_generator/pub_talks_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="16580" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="publications" localSheetId="0">publications!#REF!</definedName>
     <definedName name="publications_1" localSheetId="0">publications!#REF!</definedName>
-    <definedName name="publications_2" localSheetId="0">publications!$A$1:$G$14</definedName>
+    <definedName name="publications_2" localSheetId="0">publications!$A$1:$G$13</definedName>
     <definedName name="talks" localSheetId="1">talks!#REF!</definedName>
     <definedName name="talks_1" localSheetId="1">talks!$A$1:$H$14</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
   <si>
     <t>pub_date</t>
   </si>
@@ -506,6 +506,87 @@
   </si>
   <si>
     <t>Measurement of the Higgs boson mass from the $H \\to \\gamma\\gamma$ and $H \\to  ZZ^{*} \\to 4\\ell$ channels with the ATLAS detector using 25 fb$^{-1}$ of pp collision data</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>2016-08-06</t>
+  </si>
+  <si>
+    <t>Combined measurements of the Higgs boson production and decay rates in $H\\to ZZ^{*} \\to 4\\ell$and $H \\to \\gamma\\gamma$ final states using pp collision data at $\\sqrt{s} = 13$TeV in the ATLAS experiment</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2016-081</t>
+  </si>
+  <si>
+    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2016-081/</t>
+  </si>
+  <si>
+    <t>2015-12-14</t>
+  </si>
+  <si>
+    <t>Measurement of the fiducial cross section of the Higgs boson and search for new physics in the $ZZ^{*}\\to 4\\ell$ final state with ATLAS using 2015 LHC pp collisions</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2015-059</t>
+  </si>
+  <si>
+    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2015-059/</t>
+  </si>
+  <si>
+    <t>2015-07-03</t>
+  </si>
+  <si>
+    <t>Dark Matter Benchmark Models for Early LHC Run-2 Searches: Report of the ATLAS/CMS Dark Matter Forum</t>
+  </si>
+  <si>
+    <t>arxiv</t>
+  </si>
+  <si>
+    <t>arxiv:1507.00966</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/1507.00966</t>
+  </si>
+  <si>
+    <t>2013-03-06</t>
+  </si>
+  <si>
+    <t>Measurement of the properties of the Higgs-like boson in the four lepton decay channel with the ATLAS detector using 25 fb$^{-1}$ of proton-proton collision data</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2013-013</t>
+  </si>
+  <si>
+    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2013-013/</t>
+  </si>
+  <si>
+    <t>2012-12-13</t>
+  </si>
+  <si>
+    <t>Observation of an excess of events in the search for the Standard Model Higgs boson in the $H\\to ZZ^{*}\\to 4\\ell$ channel with the ATLAS detector</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2012-169</t>
+  </si>
+  <si>
+    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2012-169/</t>
+  </si>
+  <si>
+    <t>2012-07-05</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2012-092</t>
+  </si>
+  <si>
+    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2012-092/</t>
   </si>
 </sst>
 </file>
@@ -518,7 +599,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,18 +635,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -904,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -986,62 +1069,62 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>150</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1066,139 +1149,311 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>147</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:G21">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="G16" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/markdown_generator/pub_talks_inputs.xlsx
+++ b/markdown_generator/pub_talks_inputs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xju/Documents/Programs/PersonalSite/xju2.github.io/markdown_generator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF40904-7ADF-FD49-BCF0-D161A4FC3C0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="16580" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-40400" yWindow="4040" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -13,22 +19,26 @@
   <definedNames>
     <definedName name="publications" localSheetId="0">publications!#REF!</definedName>
     <definedName name="publications_1" localSheetId="0">publications!#REF!</definedName>
-    <definedName name="publications_2" localSheetId="0">publications!$A$1:$G$13</definedName>
+    <definedName name="publications_2" localSheetId="0">publications!$A$1:$G$17</definedName>
     <definedName name="talks" localSheetId="1">talks!#REF!</definedName>
     <definedName name="talks_1" localSheetId="1">talks!$A$1:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="publications.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="publications.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:xju:Documents:Programs:PersonalSite:xju2.github.io:markdown_generator:publications.tsv">
       <textFields count="7">
         <textField type="text"/>
@@ -41,7 +51,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="talks.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="talks.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:xju:Documents:Programs:PersonalSite:xju2.github.io:markdown_generator:talks.tsv">
       <textFields count="8">
         <textField type="text"/>
@@ -59,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="209">
   <si>
     <t>pub_date</t>
   </si>
@@ -85,84 +95,27 @@
     <t>JHEP</t>
   </si>
   <si>
-    <t>ATLAS Collaboration, JHEP 1012 (2010) 060</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.1007/JHEP12(2010)060</t>
-  </si>
-  <si>
-    <t>Phys.Lett.B</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, Phys.Lett.B 705 (2011) 435-451</t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science/article/pii/S0370269311012780</t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science/article/pii/S0370269312002560</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, Phys.Lett.B 710 (2012) 49-66</t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science/article/pii/S0370269312001852</t>
-  </si>
-  <si>
     <t>A Particle Consistent with the Higgs Boson Observed with the ATLAS Detector at the Large Hadron Collider</t>
   </si>
   <si>
     <t>Science</t>
   </si>
   <si>
-    <t>ATLAS Collaboration, Science 338 1576-1582</t>
-  </si>
-  <si>
-    <t>http://science.sciencemag.org/content/338/6114/1576</t>
-  </si>
-  <si>
     <t>Observation of a new particle in the search for the Standard Model Higgs boson with the ATLAS detector at the LHC</t>
   </si>
   <si>
-    <t>ATLAS Collaboration, Phys.Lett.B 716 (2012) 1-29</t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science/article/pii/S037026931200857X</t>
-  </si>
-  <si>
-    <t>Phys.Rev.D</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, Phys.Rev.D 90 (2014) 052004</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prd/abstract/10.1103/PhysRevD.90.052004</t>
-  </si>
-  <si>
     <t>Measurement of Higgs boson production and couplings in the four-lepton channel in pp collisions at center-of-mass energies of 7 and 8 TeV with the ATLAS detector</t>
   </si>
   <si>
-    <t>https://journals.aps.org/prd/abstract/10.1103/PhysRevD.91.012006</t>
-  </si>
-  <si>
     <t>EPJC</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.1140%2Fepjc%2Fs10052-015-3769-y</t>
-  </si>
-  <si>
     <t>Search for new phenomena in final states with an energetic jet and large missing transverse momentumi in pp collisions at 13 TeV using the ATLAS detector</t>
   </si>
   <si>
-    <t>https://journals.aps.org/prd/abstract/10.1103/PhysRevD.94.032005</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007%2FJHEP09%282016%29001</t>
-  </si>
-  <si>
     <t>PLB</t>
   </si>
   <si>
@@ -190,9 +143,6 @@
     <t>2015-01-16</t>
   </si>
   <si>
-    <t>2016-01-05</t>
-  </si>
-  <si>
     <t>2016-08-22</t>
   </si>
   <si>
@@ -205,24 +155,6 @@
     <t>2017-10-01</t>
   </si>
   <si>
-    <t>ATLAS Collaboration, Phys.Lett.B 710 (2012) 383-402</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, Phys.rev.D 91 (2015) no.1, 012006</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, Eur.Phys.J. C 76 (2016) no.1</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, Phys.Rev.D 94 (2016) no.3, 032005</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, JHEP 1609 (2016) 001</t>
-  </si>
-  <si>
-    <t>ATLAS Collaboration, ToBeUpdated</t>
-  </si>
-  <si>
     <t>Measurement of the $W \\to l\\nu$ and $Z \\to \\ell\\ell$ production cross section in proton-proton collision at $\\sqrt{s}$ = 7 TeV with the ATLAS detector</t>
   </si>
   <si>
@@ -235,9 +167,6 @@
     <t>Combined search for the Standard Model Higgs boson using up to 4.9 fb$^{-1}$ of pp collision data at $\\sqrt{s}$ = 7 TeV with the ATLAS detector at the LHC</t>
   </si>
   <si>
-    <t>Measurements of the Higgs boson production and decay rates and couplings using pp collision data at $\\sqrt{s}$ = 7 and 8 TeV in the ATLAS experiment</t>
-  </si>
-  <si>
     <t>Search for resonances in diphoton events at $\\sqrt{s}$ = 13 TeV with the ATLAS detector</t>
   </si>
   <si>
@@ -523,9 +452,6 @@
     <t>ATLAS-CONF-2016-081</t>
   </si>
   <si>
-    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2016-081/</t>
-  </si>
-  <si>
     <t>2015-12-14</t>
   </si>
   <si>
@@ -535,9 +461,6 @@
     <t>ATLAS-CONF-2015-059</t>
   </si>
   <si>
-    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2015-059/</t>
-  </si>
-  <si>
     <t>2015-07-03</t>
   </si>
   <si>
@@ -553,9 +476,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>http://arxiv.org/abs/1507.00966</t>
-  </si>
-  <si>
     <t>2013-03-06</t>
   </si>
   <si>
@@ -565,9 +485,6 @@
     <t>ATLAS-CONF-2013-013</t>
   </si>
   <si>
-    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2013-013/</t>
-  </si>
-  <si>
     <t>2012-12-13</t>
   </si>
   <si>
@@ -577,23 +494,215 @@
     <t>ATLAS-CONF-2012-169</t>
   </si>
   <si>
-    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2012-169/</t>
-  </si>
-  <si>
     <t>2012-07-05</t>
   </si>
   <si>
     <t>ATLAS-CONF-2012-092</t>
   </si>
   <si>
-    <t>https://atlas.web.cern.ch/Atlas/GROUPS/PHYSICS/CONFNOTES/ATLAS-CONF-2012-092/</t>
+    <t>total-citation</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>InspireHep</t>
+  </si>
+  <si>
+    <t>citation-update-date</t>
+  </si>
+  <si>
+    <t>https://inspirehep.net/record/1609773</t>
+  </si>
+  <si>
+    <t>https://inspirehep.net/record/1643838</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>Search for dark matter and other new phenomena in events with an energetic jet and large missing transverse momentum using the ATLAS detector</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1635274</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>Searches for heavy 𝑍𝑍 and 𝑍𝑊 resonances in the ℓℓ𝑞𝑞 and 𝜈𝜈𝑞𝑞 final states in 𝑝𝑝 collisions at 𝑠√=13 TeV with the ATLAS detector</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1620910</t>
+  </si>
+  <si>
+    <t>2018-08-07</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1685420</t>
+  </si>
+  <si>
+    <t>Combination of searches for heavy resonances decaying into bosonic and leptonic final states using 36 fb−1 of proton-proton collision data at 𝑠√=13 TeV with the ATLAS detector</t>
+  </si>
+  <si>
+    <t>2014-08-14</t>
+  </si>
+  <si>
+    <t>Fiducial and differential cross sections of Higgs boson production measured in the four-lepton decay channel in 𝑝𝑝 collisions at 𝑠√=8 TeV with the ATLAS detector</t>
+  </si>
+  <si>
+    <t>Phys.Lett. B738 (2014) 234-253</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1310835</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>Search for pair production of first or second generation leptoquarks in proton-proton collisions at 𝑠√=7 TeV using the ATLAS detector at the LHC</t>
+  </si>
+  <si>
+    <t>Phys.Rev. D83 (2011) 112006</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/897002</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2010-044</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2017-058</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2016-059</t>
+  </si>
+  <si>
+    <t>ATLAS-CONF-2016-079</t>
+  </si>
+  <si>
+    <t>cited-by-others</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/929699</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1223730</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1469066</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1088225</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1452559</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1311990</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/872570</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1300650</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1088223</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1124337</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1381178</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1204325</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1409821/</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1229983</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1229969</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1480061</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1609535</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1203945</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1480059</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1480039</t>
+  </si>
+  <si>
+    <t>编辑推荐</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>封面</t>
+  </si>
+  <si>
+    <t>Science 338 1576-1582</t>
+  </si>
+  <si>
+    <t>JHEP 1012 (2010) 060</t>
+  </si>
+  <si>
+    <t>Phys.Lett.B 705 (2011) 435-451</t>
+  </si>
+  <si>
+    <t>Phys.Lett.B 710 (2012) 49-66</t>
+  </si>
+  <si>
+    <t>Phys.Lett.B 710 (2012) 383-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phys.Lett.B 716 (2012) 1-29</t>
+  </si>
+  <si>
+    <t>Phys.rev.D 91 (2015) no.1, 012006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phys.Rev.D 94 (2016) no.3, 032005</t>
+  </si>
+  <si>
+    <t>JHEP 1609 (2016) 001</t>
+  </si>
+  <si>
+    <t>JHEP 1801 (2018) 126</t>
+  </si>
+  <si>
+    <t>Phys.Rev. D98 (2018) no.5, 052008</t>
+  </si>
+  <si>
+    <t>Eur. Phys. J. C 78 (2018) 293</t>
+  </si>
+  <si>
+    <t>Phys.Rev. D90 (2014) no.5, 052004</t>
+  </si>
+  <si>
+    <t>JHEP 1803 (2018) 009</t>
+  </si>
+  <si>
+    <t>Phys.Lett. B775 (2017) 105-125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,6 +726,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -635,34 +751,325 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="144">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="publications_2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="publications_2" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="talks_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="talks_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,25 +1393,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="134.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="176.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,451 +1435,935 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2">
+        <v>323</v>
+      </c>
+      <c r="I2">
+        <v>243</v>
+      </c>
+      <c r="J2">
+        <v>1381178</v>
+      </c>
+      <c r="K2" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>51</v>
+      </c>
+      <c r="J4">
+        <v>1204325</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1229983</v>
+      </c>
+      <c r="K5" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6">
+        <v>297</v>
+      </c>
+      <c r="I6">
+        <v>266</v>
+      </c>
+      <c r="J6">
+        <v>1229969</v>
+      </c>
+      <c r="K6" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>1409821</v>
+      </c>
+      <c r="K7" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>1480061</v>
+      </c>
+      <c r="K8" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>1609535</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>1203945</v>
+      </c>
+      <c r="K10" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11">
+        <v>67</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>1480059</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12">
+        <v>120</v>
+      </c>
+      <c r="I12">
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <v>1480039</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13">
+        <v>366</v>
+      </c>
+      <c r="I13">
+        <v>94</v>
+      </c>
+      <c r="J13">
+        <v>872570</v>
+      </c>
+      <c r="K13" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>897002</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>929699</v>
+      </c>
+      <c r="K15" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16">
+        <v>688</v>
+      </c>
+      <c r="I16">
+        <v>607</v>
+      </c>
+      <c r="J16">
+        <v>1088223</v>
+      </c>
+      <c r="K16" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17">
+        <v>187</v>
+      </c>
+      <c r="I17">
+        <v>129</v>
+      </c>
+      <c r="J17">
+        <v>1088225</v>
+      </c>
+      <c r="K17" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18">
+        <v>9370</v>
+      </c>
+      <c r="I18">
+        <v>8098</v>
+      </c>
+      <c r="J18">
+        <v>1124337</v>
+      </c>
+      <c r="K18" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19">
+        <v>83</v>
+      </c>
+      <c r="I19">
+        <v>68</v>
+      </c>
+      <c r="J19">
+        <v>1223730</v>
+      </c>
+      <c r="K19" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20">
+        <v>112</v>
+      </c>
+      <c r="I20">
+        <v>59</v>
+      </c>
+      <c r="J20">
+        <v>1310835</v>
+      </c>
+      <c r="K20" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21">
+        <v>440</v>
+      </c>
+      <c r="I21">
+        <v>292</v>
+      </c>
+      <c r="J21">
+        <v>1300650</v>
+      </c>
+      <c r="K21" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22">
+        <v>269</v>
+      </c>
+      <c r="I22">
+        <v>177</v>
+      </c>
+      <c r="J22">
+        <v>1311990</v>
+      </c>
+      <c r="K22" s="3">
+        <v>43568</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23">
+        <v>238</v>
+      </c>
+      <c r="I23">
+        <v>184</v>
+      </c>
+      <c r="J23">
+        <v>1452559</v>
+      </c>
+      <c r="K23" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24">
+        <v>168</v>
+      </c>
+      <c r="I24">
+        <v>132</v>
+      </c>
+      <c r="J24">
+        <v>1469066</v>
+      </c>
+      <c r="K24" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25">
+        <v>77</v>
+      </c>
+      <c r="I25">
+        <v>61</v>
+      </c>
+      <c r="J25">
+        <v>1609773</v>
+      </c>
+      <c r="K25" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26">
+        <v>55</v>
+      </c>
+      <c r="I26">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J26">
+        <v>1620910</v>
+      </c>
+      <c r="K26" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27">
+        <v>49</v>
+      </c>
+      <c r="I27">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>1643838</v>
+      </c>
+      <c r="K27" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28">
+        <v>112</v>
+      </c>
+      <c r="I28">
+        <v>91</v>
+      </c>
+      <c r="J28">
+        <v>1635274</v>
+      </c>
+      <c r="K28" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
+      <c r="I29">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29">
+        <v>1685420</v>
+      </c>
+      <c r="K29" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <f>SUM(H2:H29)</f>
+        <v>13348</v>
+      </c>
+      <c r="I30">
+        <f>SUM(I2:I29)</f>
+        <v>10982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31">
+        <f>I30-I9</f>
+        <v>10964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:9">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="I33">
+        <f>SUM(I5,I6,I7)</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1"/>
     </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:G21">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
+    <sortCondition ref="F1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-    <hyperlink ref="G14" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
@@ -1487,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1496,350 +2389,345 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>